--- a/Files/demographic_pca_revised_iteration2.xlsx
+++ b/Files/demographic_pca_revised_iteration2.xlsx
@@ -8,71 +8,74 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josem\Documents\NovaIMS\2020-2021\DataMining\DM\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDCDBDF-5B6D-4BEC-8383-EF972EF2BBC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE82602-EEAE-4570-9A6F-6A1A8A5DA599}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="1080" windowWidth="28800" windowHeight="15435" firstSheet="25" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="21" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="population" sheetId="1" r:id="rId1"/>
     <sheet name="ethnicity" sheetId="2" r:id="rId2"/>
-    <sheet name="households" sheetId="4" r:id="rId3"/>
-    <sheet name="age_c" sheetId="24" r:id="rId4"/>
-    <sheet name="children" sheetId="25" r:id="rId5"/>
+    <sheet name="age_c" sheetId="24" r:id="rId3"/>
+    <sheet name="children" sheetId="25" r:id="rId4"/>
+    <sheet name="households" sheetId="4" r:id="rId5"/>
     <sheet name="marriage" sheetId="5" r:id="rId6"/>
     <sheet name="structure" sheetId="6" r:id="rId7"/>
     <sheet name="home_value" sheetId="7" r:id="rId8"/>
     <sheet name="housing_units" sheetId="8" r:id="rId9"/>
     <sheet name="housing_units (2)" sheetId="29" r:id="rId10"/>
-    <sheet name="renters" sheetId="10" r:id="rId11"/>
-    <sheet name="families" sheetId="9" r:id="rId12"/>
-    <sheet name="income" sheetId="11" r:id="rId13"/>
-    <sheet name="mobility" sheetId="12" r:id="rId14"/>
-    <sheet name="transportation" sheetId="13" r:id="rId15"/>
-    <sheet name="labor_force" sheetId="14" r:id="rId16"/>
-    <sheet name="occupation" sheetId="15" r:id="rId17"/>
-    <sheet name="employment" sheetId="16" r:id="rId18"/>
-    <sheet name="employer" sheetId="17" r:id="rId19"/>
-    <sheet name="education" sheetId="18" r:id="rId20"/>
-    <sheet name="military" sheetId="19" r:id="rId21"/>
-    <sheet name="ancestry" sheetId="20" r:id="rId22"/>
-    <sheet name="language" sheetId="21" r:id="rId23"/>
-    <sheet name="vehicles" sheetId="22" r:id="rId24"/>
-    <sheet name="home_structures" sheetId="23" r:id="rId25"/>
-    <sheet name="home_grid" sheetId="26" r:id="rId26"/>
-    <sheet name="home_heating" sheetId="27" r:id="rId27"/>
-    <sheet name="home_occupation" sheetId="28" r:id="rId28"/>
+    <sheet name="type_home" sheetId="30" r:id="rId11"/>
+    <sheet name="home_size" sheetId="31" r:id="rId12"/>
+    <sheet name="renters (2)" sheetId="32" r:id="rId13"/>
+    <sheet name="renters" sheetId="10" r:id="rId14"/>
+    <sheet name="families" sheetId="9" r:id="rId15"/>
+    <sheet name="income" sheetId="11" r:id="rId16"/>
+    <sheet name="mobility" sheetId="12" r:id="rId17"/>
+    <sheet name="transportation" sheetId="13" r:id="rId18"/>
+    <sheet name="labor_force" sheetId="14" r:id="rId19"/>
+    <sheet name="occupation" sheetId="15" r:id="rId20"/>
+    <sheet name="employment" sheetId="16" r:id="rId21"/>
+    <sheet name="employer" sheetId="17" r:id="rId22"/>
+    <sheet name="education" sheetId="18" r:id="rId23"/>
+    <sheet name="military" sheetId="19" r:id="rId24"/>
+    <sheet name="ancestry" sheetId="20" r:id="rId25"/>
+    <sheet name="language" sheetId="21" r:id="rId26"/>
+    <sheet name="vehicles" sheetId="22" r:id="rId27"/>
+    <sheet name="home_structures" sheetId="23" r:id="rId28"/>
+    <sheet name="home_grid" sheetId="26" r:id="rId29"/>
+    <sheet name="home_heating" sheetId="27" r:id="rId30"/>
+    <sheet name="home_occupation" sheetId="28" r:id="rId31"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="21">ancestry!$A$1:$E$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="19">education!$A$1:$F$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="18">employer!$A$1:$D$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="17">employment!$A$1:$F$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="24">ancestry!$A$1:$E$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="22">education!$A$1:$F$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="21">employer!$A$1:$D$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="20">employment!$A$1:$F$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">ethnicity!$A$1:$E$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">families!$A$1:$C$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="24">home_structures!$A$1:$E$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">families!$A$1:$C$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="27">home_structures!$A$1:$E$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">home_value!$A$1:$C$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">households!$A$1:$D$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">households!$A$1:$D$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">housing_units!$A$1:$E$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'housing_units (2)'!$A$1:$E$15</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">income!$A$1:$E$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="15">labor_force!$A$1:$F$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="22">language!$A$1:$C$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="15">income!$A$1:$E$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="18">labor_force!$A$1:$F$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="25">language!$A$1:$C$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">marriage!$A$1:$D$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="20">military!$A$1:$F$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="13">mobility!$A$1:$D$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="16">occupation!$A$1:$I$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="23">military!$A$1:$F$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="16">mobility!$A$1:$D$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="19">occupation!$A$1:$I$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">population!$A$1:$D$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">renters!$A$1:$C$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">renters!$A$1:$C$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">structure!$A$1:$D$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="14">transportation!$A$1:$D$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="23">vehicles!$A$1:$C$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="17">transportation!$A$1:$D$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="26">vehicles!$A$1:$C$4</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="289">
   <si>
     <t>PC0</t>
   </si>
@@ -1202,27 +1205,27 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>PC0 - rural</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>PC1 - suburban</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>PC2 - highly_populated</a:t>
+            <a:t>PC0 - pcapop_rural_vs_urban</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC1 - pca_pop_suburban_vs_rural</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC2 - pcapop_highly_populated_bin</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1349,40 +1352,6 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>HUPA3                    Percent Mobile Homes or Trailers</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
           <a:endParaRPr lang="en-GB" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -2559,6 +2528,43 @@
             <a:t>PC3 - drop</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DO NOT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> DROP ADI</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -4435,27 +4441,27 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>PC0 - black_vs_white_neighbourhood</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>PC1 - hispanic_neighbourhood</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>PC2 - old_vs_young_white_neighbourhood</a:t>
+            <a:t>PC0 - pcaeth_black_vs_white_neighbourhood</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC1 - pcaeth_hispanic_neighbourhood_bin</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC2 - pcaeth_old_vs_young_white_neighbourhood</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0">
@@ -4473,7 +4479,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>PC3 - asian_neighbourhood </a:t>
+            <a:t>PC3 - pcaeth_asian_neighbourhood_bin</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" sz="1100">
             <a:solidFill>
@@ -4942,19 +4948,28 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t>PC2 ----&gt; young_veterans</a:t>
+            <a:t>PC2 ----&gt; young_veterans ( drop)</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t>PC3 -----&gt; vietnam_veterans</a:t>
+            <a:t>PC3 -----&gt; vietnam_veterans (drop)</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t>PC4 -----&gt; military_active</a:t>
+            <a:t>PC4 -----&gt; drop</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>KEEP AFC1</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6488,6 +6503,23 @@
             </a:rPr>
             <a:t> --&gt; drop</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DROP </a:t>
+          </a:r>
           <a:endParaRPr lang="en-GB" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -6502,6 +6534,343 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C316CD78-EEB3-42EC-9365-F1B37EB7FE84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2447925" y="47625"/>
+          <a:ext cx="4867275" cy="4133850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>AGE901                      Median Age of Population</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>AGE902                      Median Age of Adults 18 or Older</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>AGE903                      Median Age of Adults 25 or Older</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>AGE904                      Average Age of Population</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>AGE905                      Average Age of Adults &gt;= 18</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>AGE906                      Average Age of Adults &gt;= 25</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>AGE907                      Percent Population Under Age 18</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>AGEC1                       Percent Adults Age18-24</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>AGEC2                       Percent Adults Age 25-34</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>AGEC3                       Percent Adults Age 35-44</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>AGEC4                       Percent Adults Age 45-54</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>AGEC5                       Percent Adults Age 55-64</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>AGEC6                       Percent Adults Age 65-74</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>AGEC7                       Percent Adults Age &gt;= 75</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>AC1                         Percent Adults Age 55-59</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>AC2                         Percent Adults Age 60-64</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>PC0 ---&gt; older</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>_population_vs_younger</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>PC1 ----&gt; drop.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47FBF405-D69D-4F6B-B6EC-D2913FE2A835}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="190500"/>
+          <a:ext cx="4867275" cy="4133850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>CHIL1                       Percent Children Under Age 7</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>CHIL2                       Percent Children Age 7 - 13</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>CHIL3                       Percent Children Age 14-17</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>CHILC1                      Percent Children Age &lt;=2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>CHILC2                      Percent Children Age 3-5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>CHILC3                      Percent Children Age 6-11</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>CHILC4                      Percent Children Age 12-15</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>CHILC5                      Percent Children Age 16-18</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>PC0 ---&gt; pcachild_young_vs_older</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>PC1 ----&gt; pcachild_kids_not_7_13_bin</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>PC2 ----&gt; pcachild_teenagers_bin</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1050" baseline="0"/>
+            <a:t>PC3 -----&gt; drop</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1050" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1050" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6657,17 +7026,17 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>PC0 - multiple_people_household</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>PC1 - twopeople_household</a:t>
+            <a:t>PC0 - pcahh_multiple_people_household</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC1 - pcahh_twopeople_household</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6699,337 +7068,6 @@
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
           </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C316CD78-EEB3-42EC-9365-F1B37EB7FE84}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2447925" y="47625"/>
-          <a:ext cx="4867275" cy="4133850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>AGE901                      Median Age of Population</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>AGE902                      Median Age of Adults 18 or Older</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>AGE903                      Median Age of Adults 25 or Older</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>AGE904                      Average Age of Population</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>AGE905                      Average Age of Adults &gt;= 18</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>AGE906                      Average Age of Adults &gt;= 25</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>AGE907                      Percent Population Under Age 18</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>AGEC1                       Percent Adults Age18-24</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>AGEC2                       Percent Adults Age 25-34</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>AGEC3                       Percent Adults Age 35-44</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>AGEC4                       Percent Adults Age 45-54</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>AGEC5                       Percent Adults Age 55-64</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>AGEC6                       Percent Adults Age 65-74</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>AGEC7                       Percent Adults Age &gt;= 75</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>AC1                         Percent Adults Age 55-59</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>AC2                         Percent Adults Age 60-64</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>PC0 ---&gt; older</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t>_population_vs_younger</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t>PC1 ----&gt; drop.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47FBF405-D69D-4F6B-B6EC-D2913FE2A835}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3657600" y="190500"/>
-          <a:ext cx="4867275" cy="4133850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>CHIL1                       Percent Children Under Age 7</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>CHIL2                       Percent Children Age 7 - 13</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>CHIL3                       Percent Children Age 14-17</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>CHILC1                      Percent Children Age &lt;=2</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>CHILC2                      Percent Children Age 3-5</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>CHILC3                      Percent Children Age 6-11</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>CHILC4                      Percent Children Age 12-15</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>CHILC5                      Percent Children Age 16-18</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>PC0 ---&gt; young_children_vs_older_children</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t>PC1 ----&gt; kids_not_7_13_bin</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t>PC2 ----&gt; teenagers_bin</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1050" baseline="0"/>
-            <a:t>PC3 -----&gt; drop</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7377,7 +7415,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>PC0 - big_vs_small_unitstructures</a:t>
+            <a:t>PC0 - pcastruc_big_vs_small_units</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-GB" sz="1100">
@@ -7614,7 +7652,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>PC0 - high_value_homes</a:t>
+            <a:t>PC0 -pcahv_high_value_bin</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-GB" sz="1100">
@@ -8224,12 +8262,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8367,7 +8405,7 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029D6367-0634-4D79-BC9C-433238AED7BF}">
   <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -8733,9 +8771,270 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6F803A-EB03-4B56-8D09-C0F97395BAC4}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="3">
+        <v>-0.98364419522767499</v>
+      </c>
+      <c r="C2">
+        <v>-5.6328168082878313E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.97554907399369328</v>
+      </c>
+      <c r="C3">
+        <v>-0.1199774869673237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4">
+        <v>-0.12461936840436839</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-0.97320576835230188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5">
+        <v>7.3536918085479464E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.85513818428731514</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62888773-E73F-4F85-ACB5-84AF6D680F0E}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="3">
+        <v>-0.83560428866351921</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="3">
+        <v>-0.87746557471755549</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-0.53186366923131123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5">
+        <v>0.1574447801547372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.69289826267979704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="3">
+        <v>-0.89837404756702732</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.52124960857692304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.77829564443273513</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10">
+        <v>3.7890414469077472E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11">
+        <v>-4.2091721065530503E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12">
+        <v>0.37633085828455282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.81684078400378624</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D1860D-C178-42BF-BB9C-4DF3C862C34A}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2">
+        <v>-0.195364981788926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3">
+        <v>-5.4492591676478068E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4">
+        <v>0.23231225318313151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5">
+        <v>-0.38752740295867488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.90598589525678663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.97893277037626569</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.95310207261285929</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.8189973838414516</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFFC000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -8848,7 +9147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -9008,7 +9307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -9518,7 +9817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -9619,7 +9918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -9832,7 +10131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -10069,15 +10368,423 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3">
+        <v>-0.96862692242014503</v>
+      </c>
+      <c r="C2">
+        <v>-0.1099984521204137</v>
+      </c>
+      <c r="D2">
+        <v>4.5839910246355947E-2</v>
+      </c>
+      <c r="E2">
+        <v>-0.19595711601635801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.88553638088233144</v>
+      </c>
+      <c r="C3">
+        <v>-0.34623027901821352</v>
+      </c>
+      <c r="D3">
+        <v>-0.117507513291238</v>
+      </c>
+      <c r="E3">
+        <v>-0.26136483325254689</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5">
+        <v>5.7713291491900007E-2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5.596350810752368E-2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2.2612535581540631E-2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.16629183737714251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0.21342705458951891</v>
+      </c>
+      <c r="C5">
+        <v>0.25905218380256939</v>
+      </c>
+      <c r="D5">
+        <v>1.191896661186035E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.76515330503918388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>0.24460370951127791</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.9291881188652229</v>
+      </c>
+      <c r="D6">
+        <v>7.2995658101846911E-3</v>
+      </c>
+      <c r="E6">
+        <v>-0.2213283400949502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5">
+        <v>5.0455080484675133E-2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>9.6522943934986269E-2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>-8.1750623544720957E-2</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.26505861581130508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>0.1212829005986889</v>
+      </c>
+      <c r="C8">
+        <v>0.11474286676234741</v>
+      </c>
+      <c r="D8">
+        <v>3.9409141135415861E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.55626122879925333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>0.13427917096466679</v>
+      </c>
+      <c r="C9">
+        <v>0.15467393667199539</v>
+      </c>
+      <c r="D9">
+        <v>3.6869078895601252E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.53916291640153235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>0.18809040002723859</v>
+      </c>
+      <c r="C10">
+        <v>0.23236446993764301</v>
+      </c>
+      <c r="D10">
+        <v>1.080735523368279E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.52835053822666467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="5">
+        <v>9.575356885403305E-2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.13039521160981521</v>
+      </c>
+      <c r="D11" s="5">
+        <v>-1.423434983699496E-2</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.3905345224201861</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.1209429139255591</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.1661568229312754</v>
+      </c>
+      <c r="D12" s="5">
+        <v>-1.7916548356722559E-2</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.27198937482015451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="5">
+        <v>8.4553203789585085E-2</v>
+      </c>
+      <c r="C13" s="5">
+        <v>5.4507707891333482E-2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2.5789609207706479E-2</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.37356501371061768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>0.23291699645026129</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.90498882993053364</v>
+      </c>
+      <c r="D14">
+        <v>4.2529082409805564E-3</v>
+      </c>
+      <c r="E14">
+        <v>-0.2280475178247037</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>0.1034765184226183</v>
+      </c>
+      <c r="C15">
+        <v>0.16250744951986221</v>
+      </c>
+      <c r="D15">
+        <v>-4.6703544991834193E-3</v>
+      </c>
+      <c r="E15">
+        <v>2.7330381952014511E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>1.196143928138243E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.17328063994674139</v>
+      </c>
+      <c r="D16">
+        <v>1.291893127779257E-2</v>
+      </c>
+      <c r="E16">
+        <v>-0.1334871063354289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>0.16933051440656091</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.53759264222765746</v>
+      </c>
+      <c r="D17">
+        <v>6.4571041377870578E-3</v>
+      </c>
+      <c r="E17">
+        <v>-1.0808946468460459E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="3">
+        <v>-0.63011762110064529</v>
+      </c>
+      <c r="C18">
+        <v>5.1685259763981611E-2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>-0.51256171325507394</v>
+      </c>
+      <c r="E18">
+        <v>-0.13658160335785841</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="3">
+        <v>-0.83838037824179024</v>
+      </c>
+      <c r="C19">
+        <v>-5.2555487557722137E-2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>-0.47385632294266961</v>
+      </c>
+      <c r="E19">
+        <v>-7.4556872557917625E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>-0.30790914222479121</v>
+      </c>
+      <c r="C20">
+        <v>-0.15413929539172111</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.92021999783221775</v>
+      </c>
+      <c r="E20">
+        <v>-0.16852746029989199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.84811591958794552</v>
+      </c>
+      <c r="C21">
+        <v>-0.33012675043149442</v>
+      </c>
+      <c r="D21">
+        <v>-0.122985211194108</v>
+      </c>
+      <c r="E21">
+        <v>-0.26370644814759248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.87854986318396633</v>
+      </c>
+      <c r="C22">
+        <v>-0.33962953239522697</v>
+      </c>
+      <c r="D22">
+        <v>-0.12532174543670679</v>
+      </c>
+      <c r="E22">
+        <v>-0.25369102301234031</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.72140105448266745</v>
+      </c>
+      <c r="C23">
+        <v>-0.303516225166021</v>
+      </c>
+      <c r="D23">
+        <v>-4.8845683836815583E-2</v>
+      </c>
+      <c r="E23">
+        <v>-0.21161218197525231</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10492,10 +11199,10 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -10849,10 +11556,10 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -10978,415 +11685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:E23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3">
-        <v>-0.96862692242014503</v>
-      </c>
-      <c r="C2">
-        <v>-0.1099984521204137</v>
-      </c>
-      <c r="D2">
-        <v>4.5839910246355947E-2</v>
-      </c>
-      <c r="E2">
-        <v>-0.19595711601635801</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.88553638088233144</v>
-      </c>
-      <c r="C3">
-        <v>-0.34623027901821352</v>
-      </c>
-      <c r="D3">
-        <v>-0.117507513291238</v>
-      </c>
-      <c r="E3">
-        <v>-0.26136483325254689</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="5">
-        <v>5.7713291491900007E-2</v>
-      </c>
-      <c r="C4" s="5">
-        <v>5.596350810752368E-2</v>
-      </c>
-      <c r="D4" s="5">
-        <v>2.2612535581540631E-2</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.16629183737714251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>0.21342705458951891</v>
-      </c>
-      <c r="C5">
-        <v>0.25905218380256939</v>
-      </c>
-      <c r="D5">
-        <v>1.191896661186035E-2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.76515330503918388</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>0.24460370951127791</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.9291881188652229</v>
-      </c>
-      <c r="D6">
-        <v>7.2995658101846911E-3</v>
-      </c>
-      <c r="E6">
-        <v>-0.2213283400949502</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="5">
-        <v>5.0455080484675133E-2</v>
-      </c>
-      <c r="C7" s="5">
-        <v>9.6522943934986269E-2</v>
-      </c>
-      <c r="D7" s="5">
-        <v>-8.1750623544720957E-2</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.26505861581130508</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8">
-        <v>0.1212829005986889</v>
-      </c>
-      <c r="C8">
-        <v>0.11474286676234741</v>
-      </c>
-      <c r="D8">
-        <v>3.9409141135415861E-2</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.55626122879925333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9">
-        <v>0.13427917096466679</v>
-      </c>
-      <c r="C9">
-        <v>0.15467393667199539</v>
-      </c>
-      <c r="D9">
-        <v>3.6869078895601252E-2</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.53916291640153235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10">
-        <v>0.18809040002723859</v>
-      </c>
-      <c r="C10">
-        <v>0.23236446993764301</v>
-      </c>
-      <c r="D10">
-        <v>1.080735523368279E-2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.52835053822666467</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="5">
-        <v>9.575356885403305E-2</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.13039521160981521</v>
-      </c>
-      <c r="D11" s="5">
-        <v>-1.423434983699496E-2</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.3905345224201861</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="5">
-        <v>0.1209429139255591</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.1661568229312754</v>
-      </c>
-      <c r="D12" s="5">
-        <v>-1.7916548356722559E-2</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0.27198937482015451</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="5">
-        <v>8.4553203789585085E-2</v>
-      </c>
-      <c r="C13" s="5">
-        <v>5.4507707891333482E-2</v>
-      </c>
-      <c r="D13" s="5">
-        <v>2.5789609207706479E-2</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0.37356501371061768</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14">
-        <v>0.23291699645026129</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.90498882993053364</v>
-      </c>
-      <c r="D14">
-        <v>4.2529082409805564E-3</v>
-      </c>
-      <c r="E14">
-        <v>-0.2280475178247037</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15">
-        <v>0.1034765184226183</v>
-      </c>
-      <c r="C15">
-        <v>0.16250744951986221</v>
-      </c>
-      <c r="D15">
-        <v>-4.6703544991834193E-3</v>
-      </c>
-      <c r="E15">
-        <v>2.7330381952014511E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16">
-        <v>1.196143928138243E-2</v>
-      </c>
-      <c r="C16">
-        <v>0.17328063994674139</v>
-      </c>
-      <c r="D16">
-        <v>1.291893127779257E-2</v>
-      </c>
-      <c r="E16">
-        <v>-0.1334871063354289</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17">
-        <v>0.16933051440656091</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.53759264222765746</v>
-      </c>
-      <c r="D17">
-        <v>6.4571041377870578E-3</v>
-      </c>
-      <c r="E17">
-        <v>-1.0808946468460459E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="3">
-        <v>-0.63011762110064529</v>
-      </c>
-      <c r="C18">
-        <v>5.1685259763981611E-2</v>
-      </c>
-      <c r="D18" s="3">
-        <v>-0.51256171325507394</v>
-      </c>
-      <c r="E18">
-        <v>-0.13658160335785841</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="3">
-        <v>-0.83838037824179024</v>
-      </c>
-      <c r="C19">
-        <v>-5.2555487557722137E-2</v>
-      </c>
-      <c r="D19" s="3">
-        <v>-0.47385632294266961</v>
-      </c>
-      <c r="E19">
-        <v>-7.4556872557917625E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20">
-        <v>-0.30790914222479121</v>
-      </c>
-      <c r="C20">
-        <v>-0.15413929539172111</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.92021999783221775</v>
-      </c>
-      <c r="E20">
-        <v>-0.16852746029989199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.84811591958794552</v>
-      </c>
-      <c r="C21">
-        <v>-0.33012675043149442</v>
-      </c>
-      <c r="D21">
-        <v>-0.122985211194108</v>
-      </c>
-      <c r="E21">
-        <v>-0.26370644814759248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.87854986318396633</v>
-      </c>
-      <c r="C22">
-        <v>-0.33962953239522697</v>
-      </c>
-      <c r="D22">
-        <v>-0.12532174543670679</v>
-      </c>
-      <c r="E22">
-        <v>-0.25369102301234031</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.72140105448266745</v>
-      </c>
-      <c r="C23">
-        <v>-0.303516225166021</v>
-      </c>
-      <c r="D23">
-        <v>-4.8845683836815583E-2</v>
-      </c>
-      <c r="E23">
-        <v>-0.21161218197525231</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -11683,7 +11982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -11920,7 +12219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -12243,7 +12542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -12315,7 +12614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -12376,7 +12675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -12801,7 +13100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705E3FAD-0A15-41CE-B4FD-98AC7AAC548C}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -12883,7 +13182,210 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE82BAF-76A0-4F41-948C-A5AD615791CB}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.95930312980019627</v>
+      </c>
+      <c r="C2">
+        <v>-4.2883152121043523E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.96580080247715705</v>
+      </c>
+      <c r="C3">
+        <v>-0.22200852682012501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.96207638874586954</v>
+      </c>
+      <c r="C4">
+        <v>-0.1711108133152362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.97730068284844296</v>
+      </c>
+      <c r="C5">
+        <v>4.574102209396308E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.95037128810227844</v>
+      </c>
+      <c r="C6">
+        <v>-0.25689453288250669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.92603145005203014</v>
+      </c>
+      <c r="C7">
+        <v>-0.23218381054786591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="3">
+        <v>-0.50696553322621618</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-0.82008460979502684</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="5">
+        <v>-0.44112831007110731</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.14975533959259699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="3">
+        <v>-0.63206648819703193</v>
+      </c>
+      <c r="C10">
+        <v>-9.5751304261739847E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11">
+        <v>-0.44746119311709898</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-0.63799066972061524</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12">
+        <v>-7.1488945476690874E-3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>-0.57265596977511379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.63889619129851749</v>
+      </c>
+      <c r="C13">
+        <v>-0.20590929968544211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.87564820789681463</v>
+      </c>
+      <c r="C14">
+        <v>0.108859916571396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.78615258228368068</v>
+      </c>
+      <c r="C15">
+        <v>0.20245502418589781</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.29804802295070981</v>
+      </c>
+      <c r="C16" s="5">
+        <v>-0.23018047183681481</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.55077948373804342</v>
+      </c>
+      <c r="C17">
+        <v>-6.868578410109237E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCB791C-49D2-4603-9BAF-E5120DFD71AB}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -12976,14 +13478,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64EE68A-88D6-4564-A26A-E88D269DED98}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
@@ -13135,15 +13637,184 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86097C3C-5B9E-4F67-B197-4D722EA0AD7E}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.91160912457606336</v>
+      </c>
+      <c r="C2">
+        <v>-0.1598538971272252</v>
+      </c>
+      <c r="D2">
+        <v>0.36982013318168983</v>
+      </c>
+      <c r="E2">
+        <v>9.9295209577225027E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>-0.40798908693910663</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-0.87755726666082734</v>
+      </c>
+      <c r="D3">
+        <v>0.1198631900072307</v>
+      </c>
+      <c r="E3">
+        <v>-8.272323725448176E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-0.69437309124950752</v>
+      </c>
+      <c r="C4">
+        <v>0.16407954153521781</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.6328520609254441</v>
+      </c>
+      <c r="E4">
+        <v>0.18155344937594009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.85529737898091884</v>
+      </c>
+      <c r="C5">
+        <v>3.84815421304412E-3</v>
+      </c>
+      <c r="D5">
+        <v>0.28327550569912519</v>
+      </c>
+      <c r="E5">
+        <v>0.16893146096400641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.67499099558625386</v>
+      </c>
+      <c r="C6">
+        <v>-0.31672035414453259</v>
+      </c>
+      <c r="D6">
+        <v>0.19626481976989721</v>
+      </c>
+      <c r="E6">
+        <v>2.993061024564125E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <v>-0.10342546444255871</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-0.92823320324294512</v>
+      </c>
+      <c r="D7">
+        <v>3.7604377491861567E-2</v>
+      </c>
+      <c r="E7">
+        <v>-0.2114879945416982</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="3">
+        <v>-0.61432419811897532</v>
+      </c>
+      <c r="C8">
+        <v>-0.41310033604745611</v>
+      </c>
+      <c r="D8">
+        <v>0.23626413632657389</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.59736269910349349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="3">
+        <v>-0.47414326745674917</v>
+      </c>
+      <c r="C9">
+        <v>0.36963507839014481</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.70599270629211419</v>
+      </c>
+      <c r="E9">
+        <v>-0.3436436710490447</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13278,387 +13949,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE82BAF-76A0-4F41-948C-A5AD615791CB}">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.95930312980019627</v>
-      </c>
-      <c r="C2">
-        <v>-4.2883152121043523E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.96580080247715705</v>
-      </c>
-      <c r="C3">
-        <v>-0.22200852682012501</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.96207638874586954</v>
-      </c>
-      <c r="C4">
-        <v>-0.1711108133152362</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.97730068284844296</v>
-      </c>
-      <c r="C5">
-        <v>4.574102209396308E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.95037128810227844</v>
-      </c>
-      <c r="C6">
-        <v>-0.25689453288250669</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.92603145005203014</v>
-      </c>
-      <c r="C7">
-        <v>-0.23218381054786591</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="3">
-        <v>-0.50696553322621618</v>
-      </c>
-      <c r="C8" s="3">
-        <v>-0.82008460979502684</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="5">
-        <v>-0.44112831007110731</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.14975533959259699</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="3">
-        <v>-0.63206648819703193</v>
-      </c>
-      <c r="C10">
-        <v>-9.5751304261739847E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11">
-        <v>-0.44746119311709898</v>
-      </c>
-      <c r="C11" s="3">
-        <v>-0.63799066972061524</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12">
-        <v>-7.1488945476690874E-3</v>
-      </c>
-      <c r="C12" s="3">
-        <v>-0.57265596977511379</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.63889619129851749</v>
-      </c>
-      <c r="C13">
-        <v>-0.20590929968544211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.87564820789681463</v>
-      </c>
-      <c r="C14">
-        <v>0.108859916571396</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.78615258228368068</v>
-      </c>
-      <c r="C15">
-        <v>0.20245502418589781</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="5">
-        <v>0.29804802295070981</v>
-      </c>
-      <c r="C16" s="5">
-        <v>-0.23018047183681481</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.55077948373804342</v>
-      </c>
-      <c r="C17">
-        <v>-6.868578410109237E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86097C3C-5B9E-4F67-B197-4D722EA0AD7E}">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.91160912457606336</v>
-      </c>
-      <c r="C2">
-        <v>-0.1598538971272252</v>
-      </c>
-      <c r="D2">
-        <v>0.36982013318168983</v>
-      </c>
-      <c r="E2">
-        <v>9.9295209577225027E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3">
-        <v>-0.40798908693910663</v>
-      </c>
-      <c r="C3" s="3">
-        <v>-0.87755726666082734</v>
-      </c>
-      <c r="D3">
-        <v>0.1198631900072307</v>
-      </c>
-      <c r="E3">
-        <v>-8.272323725448176E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="3">
-        <v>-0.69437309124950752</v>
-      </c>
-      <c r="C4">
-        <v>0.16407954153521781</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.6328520609254441</v>
-      </c>
-      <c r="E4">
-        <v>0.18155344937594009</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.85529737898091884</v>
-      </c>
-      <c r="C5">
-        <v>3.84815421304412E-3</v>
-      </c>
-      <c r="D5">
-        <v>0.28327550569912519</v>
-      </c>
-      <c r="E5">
-        <v>0.16893146096400641</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.67499099558625386</v>
-      </c>
-      <c r="C6">
-        <v>-0.31672035414453259</v>
-      </c>
-      <c r="D6">
-        <v>0.19626481976989721</v>
-      </c>
-      <c r="E6">
-        <v>2.993061024564125E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7">
-        <v>-0.10342546444255871</v>
-      </c>
-      <c r="C7" s="3">
-        <v>-0.92823320324294512</v>
-      </c>
-      <c r="D7">
-        <v>3.7604377491861567E-2</v>
-      </c>
-      <c r="E7">
-        <v>-0.2114879945416982</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="3">
-        <v>-0.61432419811897532</v>
-      </c>
-      <c r="C8">
-        <v>-0.41310033604745611</v>
-      </c>
-      <c r="D8">
-        <v>0.23626413632657389</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.59736269910349349</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="3">
-        <v>-0.47414326745674917</v>
-      </c>
-      <c r="C9">
-        <v>0.36963507839014481</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.70599270629211419</v>
-      </c>
-      <c r="E9">
-        <v>-0.3436436710490447</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13740,12 +14039,12 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13883,12 +14182,12 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14021,7 +14320,7 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFFC000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>

--- a/Files/demographic_pca_revised_iteration2.xlsx
+++ b/Files/demographic_pca_revised_iteration2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josem\Documents\NovaIMS\2020-2021\DataMining\DM\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE82602-EEAE-4570-9A6F-6A1A8A5DA599}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DD19AA-F1F4-4F36-8087-97BADF1108AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="21" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="38400" yWindow="1080" windowWidth="28800" windowHeight="15435" firstSheet="28" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="population" sheetId="1" r:id="rId1"/>
@@ -4762,7 +4762,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>PC4 -----&gt; college</a:t>
+            <a:t>PC4 -----&gt; college drop.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -8772,6 +8772,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6F803A-EB03-4B56-8D09-C0F97395BAC4}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8837,6 +8840,9 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62888773-E73F-4F85-ACB5-84AF6D680F0E}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8951,9 +8957,12 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D1860D-C178-42BF-BB9C-4DF3C862C34A}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -9150,7 +9159,7 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -9310,7 +9319,7 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:E29"/>
   <sheetViews>
@@ -9820,7 +9829,7 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -9921,7 +9930,7 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -10134,12 +10143,12 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10779,12 +10788,12 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11202,12 +11211,12 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11559,7 +11568,7 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -11688,12 +11697,12 @@
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11985,12 +11994,12 @@
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D4" sqref="D4:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12222,7 +12231,7 @@
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -12545,12 +12554,12 @@
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12617,7 +12626,7 @@
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -13103,7 +13112,7 @@
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705E3FAD-0A15-41CE-B4FD-98AC7AAC548C}">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -13388,7 +13397,7 @@
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCB791C-49D2-4603-9BAF-E5120DFD71AB}">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -13481,11 +13490,11 @@
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64EE68A-88D6-4564-A26A-E88D269DED98}">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
